--- a/mentor_mentee_matches.xlsx
+++ b/mentor_mentee_matches.xlsx
@@ -13898,83 +13898,83 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>574156</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Yvette Johnson</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.8237000107765198</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.7236999869346619</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>M59170</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>Melanie Harrison</t>
         </is>
       </c>
-      <c r="E147" t="n">
+      <c r="I147" t="n">
         <v>0.7340999841690063</v>
       </c>
-      <c r="F147" t="n">
+      <c r="J147" t="n">
         <v>0.6341000199317932</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>M62704</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>Adi Karisik</t>
         </is>
       </c>
-      <c r="I147" t="n">
+      <c r="M147" t="n">
         <v>0.6984999775886536</v>
       </c>
-      <c r="J147" t="n">
+      <c r="N147" t="n">
         <v>0.5985000133514404</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="O147" t="inlineStr">
         <is>
           <t>619107</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
+      <c r="P147" t="inlineStr">
         <is>
           <t>Marina Peddy</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="Q147" t="n">
         <v>0.6758000254631042</v>
       </c>
-      <c r="N147" t="n">
+      <c r="R147" t="n">
         <v>0.5758000016212463</v>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>551907</t>
         </is>
       </c>
-      <c r="P147" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>Larry Smerk</t>
         </is>
       </c>
-      <c r="Q147" t="n">
+      <c r="U147" t="n">
         <v>0.6754000186920166</v>
       </c>
-      <c r="R147" t="n">
+      <c r="V147" t="n">
         <v>0.5753999948501587</v>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>327915</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>Veronica Fitzjarrald</t>
-        </is>
-      </c>
-      <c r="U147" t="n">
-        <v>0.6714000105857849</v>
-      </c>
-      <c r="V147" t="n">
-        <v>0.571399986743927</v>
       </c>
     </row>
     <row r="148">
@@ -18038,83 +18038,83 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>574156</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Yvette Johnson</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.9757999777793884</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.8758000135421753</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
           <t>551907</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>Larry Smerk</t>
         </is>
       </c>
-      <c r="E192" t="n">
+      <c r="I192" t="n">
         <v>0.7720000147819519</v>
       </c>
-      <c r="F192" t="n">
+      <c r="J192" t="n">
         <v>0.671999990940094</v>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>M59170</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
+      <c r="L192" t="inlineStr">
         <is>
           <t>Melanie Harrison</t>
         </is>
       </c>
-      <c r="I192" t="n">
+      <c r="M192" t="n">
         <v>0.7591999769210815</v>
       </c>
-      <c r="J192" t="n">
+      <c r="N192" t="n">
         <v>0.6592000126838684</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="O192" t="inlineStr">
         <is>
           <t>000861743 / 1372538</t>
         </is>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="P192" t="inlineStr">
         <is>
           <t>Thomas Ewart</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="Q192" t="n">
         <v>0.7440999746322632</v>
       </c>
-      <c r="N192" t="n">
+      <c r="R192" t="n">
         <v>0.64410001039505</v>
       </c>
-      <c r="O192" t="inlineStr">
+      <c r="S192" t="inlineStr">
         <is>
           <t>M62704</t>
         </is>
       </c>
-      <c r="P192" t="inlineStr">
+      <c r="T192" t="inlineStr">
         <is>
           <t>Adi Karisik</t>
         </is>
       </c>
-      <c r="Q192" t="n">
+      <c r="U192" t="n">
         <v>0.737500011920929</v>
       </c>
-      <c r="R192" t="n">
+      <c r="V192" t="n">
         <v>0.637499988079071</v>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>M:000197352</t>
-        </is>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sonia Pratley </t>
-        </is>
-      </c>
-      <c r="U192" t="n">
-        <v>0.7218000292778015</v>
-      </c>
-      <c r="V192" t="n">
-        <v>0.7218000292778015</v>
       </c>
     </row>
   </sheetData>
